--- a/data/output/FV2504_FV2410/UTILMD/55014.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55014.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13838" uniqueCount="1302">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13859" uniqueCount="1302">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -4163,6 +4163,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U938" totalsRowShown="0">
+  <autoFilter ref="A1:U938"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4452,7 +4482,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U938"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -41337,5 +41370,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55014.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55014.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16407" uniqueCount="2219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16379" uniqueCount="2219">
   <si>
     <t>#</t>
   </si>
@@ -12635,44 +12635,42 @@
       <c r="V114" s="5"/>
     </row>
     <row r="115" spans="1:22">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="2" t="s">
         <v>1404</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5" t="s">
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="K115" s="5"/>
-      <c r="L115" s="7" t="s">
-        <v>1228</v>
-      </c>
-      <c r="M115" s="5" t="s">
+      <c r="K115" s="2"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N115" s="5" t="s">
+      <c r="N115" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="O115" s="5"/>
-      <c r="P115" s="5"/>
-      <c r="Q115" s="5"/>
-      <c r="R115" s="5"/>
-      <c r="S115" s="5"/>
-      <c r="T115" s="5"/>
-      <c r="U115" s="5" t="s">
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="V115" s="5"/>
+      <c r="V115" s="2"/>
     </row>
     <row r="116" spans="1:22">
       <c r="A116" s="5" t="s">
@@ -12810,9 +12808,7 @@
         <v>984</v>
       </c>
       <c r="K118" s="5"/>
-      <c r="L118" s="7" t="s">
-        <v>1228</v>
-      </c>
+      <c r="L118" s="4"/>
       <c r="M118" s="5" t="s">
         <v>43</v>
       </c>
@@ -18891,46 +18887,44 @@
       <c r="V264" s="11"/>
     </row>
     <row r="265" spans="1:22">
-      <c r="A265" s="5" t="s">
+      <c r="A265" s="2" t="s">
         <v>1551</v>
       </c>
-      <c r="B265" s="5" t="s">
+      <c r="B265" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C265" s="5" t="s">
+      <c r="C265" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D265" s="5"/>
-      <c r="E265" s="5"/>
-      <c r="F265" s="5"/>
-      <c r="G265" s="5"/>
-      <c r="H265" s="5"/>
-      <c r="I265" s="5"/>
-      <c r="J265" s="5" t="s">
+      <c r="D265" s="2"/>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+      <c r="G265" s="2"/>
+      <c r="H265" s="2"/>
+      <c r="I265" s="2"/>
+      <c r="J265" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="K265" s="5" t="s">
+      <c r="K265" s="2" t="s">
         <v>1120</v>
       </c>
-      <c r="L265" s="7" t="s">
-        <v>1228</v>
-      </c>
-      <c r="M265" s="5" t="s">
+      <c r="L265" s="4"/>
+      <c r="M265" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="N265" s="5" t="s">
+      <c r="N265" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="O265" s="5"/>
-      <c r="P265" s="5"/>
-      <c r="Q265" s="5"/>
-      <c r="R265" s="5"/>
-      <c r="S265" s="5"/>
-      <c r="T265" s="5"/>
-      <c r="U265" s="5" t="s">
+      <c r="O265" s="2"/>
+      <c r="P265" s="2"/>
+      <c r="Q265" s="2"/>
+      <c r="R265" s="2"/>
+      <c r="S265" s="2"/>
+      <c r="T265" s="2"/>
+      <c r="U265" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="V265" s="5" t="s">
+      <c r="V265" s="2" t="s">
         <v>1120</v>
       </c>
     </row>
@@ -23260,9 +23254,7 @@
         <v>984</v>
       </c>
       <c r="K370" s="5"/>
-      <c r="L370" s="7" t="s">
-        <v>1228</v>
-      </c>
+      <c r="L370" s="4"/>
       <c r="M370" s="5" t="s">
         <v>88</v>
       </c>
@@ -24079,44 +24071,42 @@
       <c r="V389" s="5"/>
     </row>
     <row r="390" spans="1:22">
-      <c r="A390" s="5" t="s">
+      <c r="A390" s="2" t="s">
         <v>1673</v>
       </c>
-      <c r="B390" s="5" t="s">
+      <c r="B390" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C390" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D390" s="5"/>
-      <c r="E390" s="5"/>
-      <c r="F390" s="5"/>
-      <c r="G390" s="5"/>
-      <c r="H390" s="5"/>
-      <c r="I390" s="5"/>
-      <c r="J390" s="5" t="s">
+      <c r="C390" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D390" s="2"/>
+      <c r="E390" s="2"/>
+      <c r="F390" s="2"/>
+      <c r="G390" s="2"/>
+      <c r="H390" s="2"/>
+      <c r="I390" s="2"/>
+      <c r="J390" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="K390" s="5"/>
-      <c r="L390" s="7" t="s">
-        <v>1228</v>
-      </c>
-      <c r="M390" s="5" t="s">
+      <c r="K390" s="2"/>
+      <c r="L390" s="4"/>
+      <c r="M390" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N390" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="O390" s="5"/>
-      <c r="P390" s="5"/>
-      <c r="Q390" s="5"/>
-      <c r="R390" s="5"/>
-      <c r="S390" s="5"/>
-      <c r="T390" s="5"/>
-      <c r="U390" s="5" t="s">
+      <c r="N390" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O390" s="2"/>
+      <c r="P390" s="2"/>
+      <c r="Q390" s="2"/>
+      <c r="R390" s="2"/>
+      <c r="S390" s="2"/>
+      <c r="T390" s="2"/>
+      <c r="U390" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="V390" s="5"/>
+      <c r="V390" s="2"/>
     </row>
     <row r="391" spans="1:22">
       <c r="A391" s="5" t="s">
@@ -24314,9 +24304,7 @@
         <v>984</v>
       </c>
       <c r="K394" s="5"/>
-      <c r="L394" s="7" t="s">
-        <v>1228</v>
-      </c>
+      <c r="L394" s="4"/>
       <c r="M394" s="5" t="s">
         <v>94</v>
       </c>
@@ -24370,9 +24358,7 @@
         <v>984</v>
       </c>
       <c r="K395" s="5"/>
-      <c r="L395" s="7" t="s">
-        <v>1228</v>
-      </c>
+      <c r="L395" s="4"/>
       <c r="M395" s="5" t="s">
         <v>94</v>
       </c>
@@ -43943,44 +43929,42 @@
       <c r="V873" s="5"/>
     </row>
     <row r="874" spans="1:22">
-      <c r="A874" s="5" t="s">
+      <c r="A874" s="2" t="s">
         <v>2154</v>
       </c>
-      <c r="B874" s="5" t="s">
+      <c r="B874" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C874" s="5" t="s">
+      <c r="C874" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D874" s="5"/>
-      <c r="E874" s="5"/>
-      <c r="F874" s="5"/>
-      <c r="G874" s="5"/>
-      <c r="H874" s="5"/>
-      <c r="I874" s="5"/>
-      <c r="J874" s="5" t="s">
+      <c r="D874" s="2"/>
+      <c r="E874" s="2"/>
+      <c r="F874" s="2"/>
+      <c r="G874" s="2"/>
+      <c r="H874" s="2"/>
+      <c r="I874" s="2"/>
+      <c r="J874" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="K874" s="5"/>
-      <c r="L874" s="7" t="s">
-        <v>1228</v>
-      </c>
-      <c r="M874" s="5" t="s">
+      <c r="K874" s="2"/>
+      <c r="L874" s="4"/>
+      <c r="M874" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="N874" s="5" t="s">
+      <c r="N874" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="O874" s="5"/>
-      <c r="P874" s="5"/>
-      <c r="Q874" s="5"/>
-      <c r="R874" s="5"/>
-      <c r="S874" s="5"/>
-      <c r="T874" s="5"/>
-      <c r="U874" s="5" t="s">
+      <c r="O874" s="2"/>
+      <c r="P874" s="2"/>
+      <c r="Q874" s="2"/>
+      <c r="R874" s="2"/>
+      <c r="S874" s="2"/>
+      <c r="T874" s="2"/>
+      <c r="U874" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="V874" s="5"/>
+      <c r="V874" s="2"/>
     </row>
     <row r="875" spans="1:22">
       <c r="A875" s="5" t="s">
@@ -44091,44 +44075,42 @@
       <c r="V876" s="5"/>
     </row>
     <row r="877" spans="1:22">
-      <c r="A877" s="5" t="s">
+      <c r="A877" s="2" t="s">
         <v>2157</v>
       </c>
-      <c r="B877" s="5" t="s">
+      <c r="B877" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C877" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D877" s="5"/>
-      <c r="E877" s="5"/>
-      <c r="F877" s="5"/>
-      <c r="G877" s="5"/>
-      <c r="H877" s="5"/>
-      <c r="I877" s="5"/>
-      <c r="J877" s="5" t="s">
+      <c r="C877" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D877" s="2"/>
+      <c r="E877" s="2"/>
+      <c r="F877" s="2"/>
+      <c r="G877" s="2"/>
+      <c r="H877" s="2"/>
+      <c r="I877" s="2"/>
+      <c r="J877" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="K877" s="5"/>
-      <c r="L877" s="7" t="s">
-        <v>1228</v>
-      </c>
-      <c r="M877" s="5" t="s">
+      <c r="K877" s="2"/>
+      <c r="L877" s="4"/>
+      <c r="M877" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="N877" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="O877" s="5"/>
-      <c r="P877" s="5"/>
-      <c r="Q877" s="5"/>
-      <c r="R877" s="5"/>
-      <c r="S877" s="5"/>
-      <c r="T877" s="5"/>
-      <c r="U877" s="5" t="s">
+      <c r="N877" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O877" s="2"/>
+      <c r="P877" s="2"/>
+      <c r="Q877" s="2"/>
+      <c r="R877" s="2"/>
+      <c r="S877" s="2"/>
+      <c r="T877" s="2"/>
+      <c r="U877" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="V877" s="5"/>
+      <c r="V877" s="2"/>
     </row>
     <row r="878" spans="1:22">
       <c r="A878" s="5" t="s">
@@ -44326,9 +44308,7 @@
         <v>984</v>
       </c>
       <c r="K881" s="5"/>
-      <c r="L881" s="7" t="s">
-        <v>1228</v>
-      </c>
+      <c r="L881" s="4"/>
       <c r="M881" s="5" t="s">
         <v>174</v>
       </c>
@@ -44382,9 +44362,7 @@
         <v>984</v>
       </c>
       <c r="K882" s="5"/>
-      <c r="L882" s="7" t="s">
-        <v>1228</v>
-      </c>
+      <c r="L882" s="4"/>
       <c r="M882" s="5" t="s">
         <v>174</v>
       </c>
@@ -44969,46 +44947,44 @@
       <c r="V892" s="5"/>
     </row>
     <row r="893" spans="1:22">
-      <c r="A893" s="5" t="s">
+      <c r="A893" s="2" t="s">
         <v>2173</v>
       </c>
-      <c r="B893" s="5" t="s">
+      <c r="B893" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C893" s="5" t="s">
+      <c r="C893" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D893" s="5"/>
-      <c r="E893" s="5"/>
-      <c r="F893" s="5"/>
-      <c r="G893" s="5"/>
-      <c r="H893" s="5"/>
-      <c r="I893" s="5"/>
-      <c r="J893" s="5" t="s">
+      <c r="D893" s="2"/>
+      <c r="E893" s="2"/>
+      <c r="F893" s="2"/>
+      <c r="G893" s="2"/>
+      <c r="H893" s="2"/>
+      <c r="I893" s="2"/>
+      <c r="J893" s="2" t="s">
         <v>1109</v>
       </c>
-      <c r="K893" s="5" t="s">
+      <c r="K893" s="2" t="s">
         <v>1223</v>
       </c>
-      <c r="L893" s="7" t="s">
-        <v>1228</v>
-      </c>
-      <c r="M893" s="5" t="s">
+      <c r="L893" s="4"/>
+      <c r="M893" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="N893" s="5" t="s">
+      <c r="N893" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="O893" s="5"/>
-      <c r="P893" s="5"/>
-      <c r="Q893" s="5"/>
-      <c r="R893" s="5"/>
-      <c r="S893" s="5"/>
-      <c r="T893" s="5"/>
-      <c r="U893" s="5" t="s">
+      <c r="O893" s="2"/>
+      <c r="P893" s="2"/>
+      <c r="Q893" s="2"/>
+      <c r="R893" s="2"/>
+      <c r="S893" s="2"/>
+      <c r="T893" s="2"/>
+      <c r="U893" s="2" t="s">
         <v>1109</v>
       </c>
-      <c r="V893" s="5" t="s">
+      <c r="V893" s="2" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -45264,9 +45240,7 @@
         <v>984</v>
       </c>
       <c r="K898" s="5"/>
-      <c r="L898" s="7" t="s">
-        <v>1228</v>
-      </c>
+      <c r="L898" s="4"/>
       <c r="M898" s="5" t="s">
         <v>176</v>
       </c>
@@ -45714,9 +45688,7 @@
         <v>984</v>
       </c>
       <c r="K907" s="5"/>
-      <c r="L907" s="7" t="s">
-        <v>1228</v>
-      </c>
+      <c r="L907" s="4"/>
       <c r="M907" s="5" t="s">
         <v>177</v>
       </c>
